--- a/simple.xlsx
+++ b/simple.xlsx
@@ -75,7 +75,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="5.5"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="9.9"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="24.200000000000003"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="6.6000000000000005"/>
@@ -123,7 +123,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>11077281</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -148,7 +148,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>11077282</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -173,7 +173,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>11077283</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -198,7 +198,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>11077284</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -223,7 +223,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>11077285</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -248,7 +248,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>11077286</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -273,7 +273,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>11077287</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -298,7 +298,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>11077288</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -323,7 +323,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>11077289</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -348,7 +348,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>11077290</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
